--- a/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6412B3-6D40-400E-82DB-D98BE43B93DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF24785-C881-4172-88A6-632E5E2249AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CONVERTION" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="CONVERTION" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="1">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
@@ -29,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -225,6 +218,126 @@
   </si>
   <si>
     <t>12/23,26-28,31</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SUSPENDED 17-20</t>
+  </si>
+  <si>
+    <t>END OF SUSPENSION</t>
+  </si>
+  <si>
+    <t>UT(1-2-18)</t>
+  </si>
+  <si>
+    <t>UT(0-5-40)</t>
+  </si>
+  <si>
+    <t>UT(1-3-15)</t>
+  </si>
+  <si>
+    <t>UT(0-1-4)</t>
+  </si>
+  <si>
+    <t>UT(0-5-11)</t>
+  </si>
+  <si>
+    <t>UT(0-5-39)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(1-0-27)</t>
+  </si>
+  <si>
+    <t>UT(1-4-22)</t>
+  </si>
+  <si>
+    <t>SUSPENDED 18-21</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>UT(0-7-51)</t>
+  </si>
+  <si>
+    <t>UT(1-5-14)</t>
+  </si>
+  <si>
+    <t>UT(1-4-25)</t>
+  </si>
+  <si>
+    <t>UT(7-7-45)</t>
+  </si>
+  <si>
+    <t>UT(11-0-46)</t>
+  </si>
+  <si>
+    <t>A(8-0-0)</t>
+  </si>
+  <si>
+    <t>UT(2-2-58)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
+  </si>
+  <si>
+    <t>UT(1-2-40)</t>
+  </si>
+  <si>
+    <t>SUSPENDED 10/17-21</t>
+  </si>
+  <si>
+    <t>UT(1-0-9)</t>
+  </si>
+  <si>
+    <t>A(9-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-1-39)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-4-0)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ABSENCE UNDERTIME W/O PAY</t>
+  </si>
+  <si>
+    <t>UT(3-6-2)</t>
+  </si>
+  <si>
+    <t>HALFDAY</t>
+  </si>
+  <si>
+    <t>UT(2-0-10)</t>
+  </si>
+  <si>
+    <t>UT(2-7-4)</t>
+  </si>
+  <si>
+    <t>UT(1-1-23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL AS OF 2022 </t>
   </si>
 </sst>
 </file>
@@ -461,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,6 +725,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -641,6 +757,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +1037,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -920,7 +1045,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1249,12 +1374,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,60 +1401,60 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
@@ -1355,18 +1480,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1413,7 +1538,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.704000000000001</v>
+        <v>1.0000000000011333E-2</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1423,7 +1548,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64</v>
+        <v>64.668000000000006</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1716,11 +1841,15 @@
       <c r="A24" s="24">
         <v>43466</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="14">
         <v>1.25</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14">
@@ -1736,31 +1865,41 @@
       <c r="A25" s="24">
         <v>43497</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="C25" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.11200000000000002</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C26" s="14">
         <v>1.25</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>1.546</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14">
@@ -1776,11 +1915,15 @@
       <c r="A27" s="24">
         <v>43556</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="14">
         <v>1.25</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>1.056</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14">
@@ -1796,11 +1939,15 @@
       <c r="A28" s="24">
         <v>43586</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" s="14">
         <v>1.25</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12"/>
       <c r="G28" s="14">
@@ -1816,11 +1963,15 @@
       <c r="A29" s="24">
         <v>43617</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="C29" s="14">
         <v>1.25</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="12"/>
       <c r="G29" s="14">
@@ -1836,11 +1987,15 @@
       <c r="A30" s="24">
         <v>43647</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="C30" s="14">
         <v>1.25</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.70599999999999996</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14">
@@ -1856,11 +2011,15 @@
       <c r="A31" s="24">
         <v>43678</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="14">
         <v>1.25</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.64800000000000002</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="12"/>
       <c r="G31" s="14">
@@ -1876,11 +2035,15 @@
       <c r="A32" s="24">
         <v>43709</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" s="14">
         <v>1.25</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="40">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="12"/>
       <c r="G32" s="14">
@@ -1896,11 +2059,15 @@
       <c r="A33" s="24">
         <v>43739</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C33" s="14">
         <v>1.25</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>1.4059999999999999</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="12"/>
       <c r="G33" s="14">
@@ -1916,11 +2083,15 @@
       <c r="A34" s="24">
         <v>43770</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C34" s="14">
         <v>1.25</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="12">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14">
@@ -1957,12 +2128,14 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="21"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="40"/>
+      <c r="D36" s="12">
+        <v>1.2869999999999999</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="21"/>
       <c r="G36" s="14" t="str">
@@ -1975,34 +2148,36 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>43831</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="12"/>
+      <c r="A37" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="40"/>
       <c r="I37" s="9"/>
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
-        <v>43862</v>
-      </c>
-      <c r="B38" s="12"/>
+        <v>43831</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" s="14">
         <v>1.25</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12">
+        <v>11.096</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14">
@@ -2016,13 +2191,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
-        <v>43891</v>
-      </c>
-      <c r="B39" s="12"/>
+        <v>43862</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" s="14">
         <v>1.25</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12">
+        <v>7.9690000000000003</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14">
@@ -2036,7 +2215,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="14">
@@ -2056,7 +2235,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="14">
@@ -2076,13 +2255,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
-        <v>43983</v>
-      </c>
-      <c r="B42" s="12"/>
+        <v>43952</v>
+      </c>
+      <c r="B42" s="21"/>
       <c r="C42" s="14">
         <v>1.25</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="9"/>
       <c r="F42" s="12"/>
       <c r="G42" s="14">
@@ -2096,13 +2275,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
-        <v>44013</v>
-      </c>
-      <c r="B43" s="12"/>
+        <v>43983</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="C43" s="14">
         <v>1.25</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12">
+        <v>1.552</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="12"/>
       <c r="G43" s="14">
@@ -2116,13 +2299,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
-        <v>44044</v>
-      </c>
-      <c r="B44" s="12"/>
+        <v>44013</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C44" s="14">
         <v>1.25</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>1.6539999999999999</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14">
@@ -2136,13 +2323,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
-        <v>44075</v>
-      </c>
-      <c r="B45" s="12"/>
+        <v>44044</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C45" s="14">
         <v>1.25</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="12">
+        <v>0.98099999999999998</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="12"/>
       <c r="G45" s="14">
@@ -2156,7 +2347,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="14">
@@ -2176,7 +2367,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="14">
@@ -2196,17 +2387,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
-        <v>44166</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B48" s="12"/>
       <c r="C48" s="14">
         <v>1.25</v>
       </c>
-      <c r="D48" s="12">
-        <v>5</v>
-      </c>
+      <c r="D48" s="12"/>
       <c r="E48" s="9"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14">
@@ -2219,46 +2406,50 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="40"/>
+      <c r="A49" s="24">
+        <v>44166</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="12">
+        <v>5</v>
+      </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="40"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="9"/>
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
-        <v>44197</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="16"/>
+      <c r="A50" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14">
@@ -2271,14 +2462,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14">
@@ -2298,7 +2489,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14">
@@ -2318,7 +2509,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14">
@@ -2338,7 +2529,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14">
@@ -2358,7 +2549,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14">
@@ -2378,7 +2569,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14">
@@ -2398,7 +2589,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14">
@@ -2418,7 +2609,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14">
@@ -2438,7 +2629,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14">
@@ -2458,69 +2649,69 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
-        <v>44531</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="14">
         <v>1.25</v>
       </c>
-      <c r="D61" s="13">
-        <v>5</v>
-      </c>
+      <c r="D61" s="13"/>
       <c r="E61" s="10"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="16"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="24">
+        <v>44531</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="13">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>44562</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="12"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H63" s="12"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="40"/>
       <c r="I63" s="9"/>
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="14">
@@ -2540,7 +2731,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="14">
@@ -2560,7 +2751,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="14">
@@ -2580,90 +2771,90 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
-        <v>44682</v>
-      </c>
-      <c r="B67" s="13"/>
+        <v>44652</v>
+      </c>
+      <c r="B67" s="12"/>
       <c r="C67" s="14">
         <v>1.25</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="16"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
-        <v>44713</v>
-      </c>
-      <c r="B68" s="21"/>
+        <v>44682</v>
+      </c>
+      <c r="B68" s="13"/>
       <c r="C68" s="14">
         <v>1.25</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="21"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
-        <v>44743</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="14"/>
+        <v>44713</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="40"/>
       <c r="E69" s="9"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="40">
-        <v>3</v>
-      </c>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="A70" s="24">
+        <v>44743</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="40"/>
       <c r="E70" s="9"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H70" s="40"/>
+      <c r="G70" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="40">
+        <v>3</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="24">
-        <v>44774</v>
-      </c>
+      <c r="A71" s="24"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14">
         <v>1.25</v>
@@ -2682,205 +2873,213 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C72" s="14">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="40">
+        <v>1</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="21"/>
       <c r="G72" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="40">
-        <v>4</v>
-      </c>
+      <c r="H72" s="40"/>
       <c r="I72" s="9"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="21" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C73" s="14"/>
-      <c r="D73" s="40"/>
+      <c r="D73" s="40">
+        <v>1.5</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="21"/>
       <c r="G73" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="40">
-        <v>2</v>
-      </c>
+      <c r="H73" s="40"/>
       <c r="I73" s="9"/>
       <c r="J73" s="12"/>
-      <c r="K73" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="24">
+        <v>44805</v>
+      </c>
       <c r="B74" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="40"/>
       <c r="E74" s="9"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="40"/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="40">
+        <v>4</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="50">
-        <v>44832</v>
+      <c r="K74" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
-        <v>44835</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="A75" s="24"/>
+      <c r="B75" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="14"/>
       <c r="D75" s="40"/>
       <c r="E75" s="9"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="40"/>
+      <c r="G75" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40">
+        <v>2</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="24">
-        <v>44866</v>
-      </c>
+      <c r="A76" s="24"/>
       <c r="B76" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="14">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="40"/>
       <c r="E76" s="9"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H76" s="40">
-        <v>1</v>
-      </c>
+      <c r="G76" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="40"/>
       <c r="I76" s="9"/>
       <c r="J76" s="12"/>
       <c r="K76" s="50">
-        <v>44881</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="21" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C77" s="14"/>
-      <c r="D77" s="40"/>
+      <c r="D77" s="40">
+        <v>9</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="21"/>
       <c r="G77" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="40">
-        <v>1</v>
-      </c>
+      <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="50">
-        <v>44893</v>
-      </c>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="24">
-        <v>44896</v>
-      </c>
+      <c r="A78" s="24"/>
       <c r="B78" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="14">
-        <v>1.25</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C78" s="14"/>
       <c r="D78" s="40">
-        <v>5</v>
+        <v>1.206</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="K78" s="50"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
+      <c r="A79" s="24">
+        <v>44835</v>
+      </c>
       <c r="B79" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="D79" s="40">
+        <v>1.0189999999999999</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="12"/>
       <c r="K79" s="21" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="24">
+        <v>44866</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="40"/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="40">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="50">
+        <v>44881</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="41"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C81" s="14"/>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
@@ -2889,16 +3088,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="40"/>
+      <c r="H81" s="40">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="50">
+        <v>44893</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="C82" s="14"/>
-      <c r="D82" s="40"/>
+      <c r="D82" s="40">
+        <v>2</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
       <c r="G82" s="14" t="str">
@@ -2908,13 +3115,19 @@
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="50" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="41"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" s="14"/>
-      <c r="D83" s="40"/>
+      <c r="D83" s="40">
+        <v>1.333</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
       <c r="G83" s="14" t="str">
@@ -2924,27 +3137,39 @@
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="41"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="40"/>
+      <c r="A84" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="40">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
-      <c r="B85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C85" s="14"/>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
@@ -2956,13 +3181,19 @@
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="C86" s="14"/>
-      <c r="D86" s="40"/>
+      <c r="D86" s="40">
+        <v>8</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
       <c r="G86" s="14" t="str">
@@ -2972,13 +3203,19 @@
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
-      <c r="B87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="C87" s="14"/>
-      <c r="D87" s="40"/>
+      <c r="D87" s="40">
+        <v>2.371</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
       <c r="G87" s="14" t="str">
@@ -2991,7 +3228,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="41"/>
+      <c r="A88" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="40"/>
@@ -3007,36 +3246,46 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="41"/>
+      <c r="A89" s="41">
+        <v>44927</v>
+      </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="D89" s="40"/>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>0.41699999999999993</v>
+      </c>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.41699999999999993</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
@@ -3775,20 +4024,148 @@
       <c r="K136" s="21"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="42"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="44"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="16"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="40"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="21"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="41"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="40"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="21"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="41"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="40"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="21"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="40"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="21"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="40"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="41"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="40"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="21"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="41"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="40"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="21"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="41"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="40"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="21"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="42"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="44"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3831,11 +4208,530 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C932A-DF3C-45AE-8127-FC8C66F59E8E}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
+        <v>44667</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
+        <v>44676</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3.754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="63">
+        <v>44690</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="63">
+        <v>44691</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="64">
+        <v>44692</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="64">
+        <v>44694</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
+        <v>44697</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="64">
+        <v>44704</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="64">
+        <v>44706</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <v>44708</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="64">
+        <v>44709</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="64">
+        <v>44712</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="47">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="64">
+        <v>44722</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="64">
+        <v>44736</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="64">
+        <v>44739</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="64">
+        <v>44740</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="47">
+        <v>2.883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="64">
+        <v>44754</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="64">
+        <v>44757</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="64">
+        <v>44743</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
+        <v>44745</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="64">
+        <v>44746</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="64">
+        <v>44747</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="64">
+        <v>44748</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="64">
+        <v>44761</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="64">
+        <v>44764</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="64">
+        <v>44767</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="64">
+        <v>44771</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="47">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="64">
+        <v>44797</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="64">
+        <v>44802</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="51">
+        <f>SUM(C8:C40)</f>
+        <v>30.830999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="37"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="37"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{C1BB7783-9233-4B47-8382-0D4BD4F7D24D}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{4D23DC4E-625D-4292-923F-183D68587B52}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3853,17 +4749,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -3899,12 +4795,18 @@
         <v>7.7039999999999997</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>23</v>
+      </c>
       <c r="G3" s="9">
         <f>SUM(D3,E4,F4)</f>
-        <v>0</v>
+        <v>1.173</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="47">
@@ -3917,13 +4819,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="1">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
-        <v/>
-      </c>
-      <c r="F4" s="1" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F4" s="1">
         <f>IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2))</f>
-        <v/>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
@@ -3947,12 +4849,12 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/LANDICHO, ROSALINA BAYBAY.xlsx
+++ b/LANDICHO, ROSALINA BAYBAY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF24785-C881-4172-88A6-632E5E2249AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A72630-42A5-4201-A899-DBB6EF7F5C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +725,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,13 +764,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,9 +1383,9 @@
   <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <pane ySplit="3576" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,60 +1407,60 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
@@ -1480,18 +1486,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4209,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C932A-DF3C-45AE-8127-FC8C66F59E8E}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4220,111 +4226,95 @@
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="11"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="60"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="61"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="1"/>
       <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="8"/>
       <c r="C5" s="32"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="52">
         <v>44667</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
+        <v>44676</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>85</v>
@@ -4333,29 +4323,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="63">
-        <v>44676</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3.754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="52">
+        <v>44690</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="12">
-        <v>3.754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="63">
-        <v>44690</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="52">
+        <v>44691</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>85</v>
@@ -4364,9 +4354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
-        <v>44691</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="53">
+        <v>44692</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>85</v>
@@ -4375,20 +4365,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64">
-        <v>44692</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="53">
+        <v>44694</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64">
-        <v>44694</v>
+        <v>96</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="53">
+        <v>44697</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>96</v>
@@ -4397,9 +4387,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
-        <v>44697</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
+        <v>44704</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>96</v>
@@ -4408,9 +4398,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64">
-        <v>44704</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
+        <v>44706</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>96</v>
@@ -4420,8 +4410,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="64">
-        <v>44706</v>
+      <c r="A17" s="53">
+        <v>44708</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>96</v>
@@ -4431,8 +4421,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="64">
-        <v>44708</v>
+      <c r="A18" s="53">
+        <v>44709</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>96</v>
@@ -4442,8 +4432,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="64">
-        <v>44709</v>
+      <c r="A19" s="53">
+        <v>44712</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>96</v>
@@ -4453,28 +4443,28 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="64">
-        <v>44712</v>
-      </c>
+      <c r="A20" s="53"/>
       <c r="B20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="47">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="53">
+        <v>44722</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C21" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="47">
-        <v>2.0209999999999999</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="64">
-        <v>44722</v>
+      <c r="A22" s="53">
+        <v>44736</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>96</v>
@@ -4484,8 +4474,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="64">
-        <v>44736</v>
+      <c r="A23" s="53">
+        <v>44739</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>96</v>
@@ -4495,39 +4485,39 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="64">
-        <v>44739</v>
+      <c r="A24" s="53">
+        <v>44740</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="47">
+        <v>2.883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="53">
+        <v>44754</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C26" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="64">
-        <v>44740</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="47">
-        <v>2.883</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="64">
-        <v>44754</v>
+      <c r="A27" s="53">
+        <v>44757</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>96</v>
@@ -4537,19 +4527,19 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="64">
-        <v>44757</v>
+      <c r="A28" s="53">
+        <v>44743</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="64">
-        <v>44743</v>
+      <c r="A29" s="53">
+        <v>44745</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>85</v>
@@ -4559,8 +4549,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="64">
-        <v>44745</v>
+      <c r="A30" s="53">
+        <v>44746</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>85</v>
@@ -4570,8 +4560,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
-        <v>44746</v>
+      <c r="A31" s="53">
+        <v>44747</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>85</v>
@@ -4581,8 +4571,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="64">
-        <v>44747</v>
+      <c r="A32" s="53">
+        <v>44748</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>85</v>
@@ -4592,19 +4582,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
-        <v>44748</v>
+      <c r="A33" s="53">
+        <v>44761</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C33" s="47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="64">
-        <v>44761</v>
+      <c r="A34" s="53">
+        <v>44764</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>96</v>
@@ -4614,8 +4604,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
-        <v>44764</v>
+      <c r="A35" s="53">
+        <v>44767</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>96</v>
@@ -4625,8 +4615,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="64">
-        <v>44767</v>
+      <c r="A36" s="53">
+        <v>44771</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>96</v>
@@ -4636,28 +4626,28 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="64">
-        <v>44771</v>
-      </c>
+      <c r="A37" s="47"/>
       <c r="B37" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" s="47">
-        <v>0.5</v>
+        <v>1.173</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
+      <c r="A38" s="53">
+        <v>44797</v>
+      </c>
       <c r="B38" s="12" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C38" s="47">
-        <v>1.173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="64">
-        <v>44797</v>
+      <c r="A39" s="53">
+        <v>44802</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>85</v>
@@ -4667,24 +4657,16 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="64">
-        <v>44802</v>
-      </c>
       <c r="B40" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="47">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C40" s="51">
+        <f>SUM(C7:C39)</f>
+        <v>30.830999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="51">
-        <f>SUM(C8:C40)</f>
-        <v>30.830999999999996</v>
-      </c>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" s="37"/>
@@ -4698,20 +4680,14 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" s="37"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="37"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{C1BB7783-9233-4B47-8382-0D4BD4F7D24D}">
@@ -4721,7 +4697,7 @@
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4749,17 +4725,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -4849,12 +4825,12 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
